--- a/data/Adactin2.xlsx
+++ b/data/Adactin2.xlsx
@@ -3,23 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhara\eclipse-workspace\Adactinmvn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455F63CA-2384-4CE2-8D38-77B68E3D56D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A406FC2-F745-4BA6-B30F-7E1032403979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99B51F15-D3B7-4A2D-B71C-4FF838F65068}"/>
+    <workbookView xWindow="6756" yWindow="3360" windowWidth="15348" windowHeight="8880" xr2:uid="{99B51F15-D3B7-4A2D-B71C-4FF838F65068}"/>
   </bookViews>
   <sheets>
-    <sheet name="credential" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hotel" sheetId="2" r:id="rId2"/>
     <sheet name="Client" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -77,12 +77,6 @@
     <t>"2"</t>
   </si>
   <si>
-    <t>dharanm2018</t>
-  </si>
-  <si>
-    <t>Testing@123</t>
-  </si>
-  <si>
     <t>Mohan</t>
   </si>
   <si>
@@ -96,12 +90,40 @@
   </si>
   <si>
     <t>Gangadharan</t>
+  </si>
+  <si>
+    <t>- Select Location -</t>
+  </si>
+  <si>
+    <t>Sydney</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Brisbane</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>Paris</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,9 +153,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -454,37 +475,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0726B07-1C15-4C3B-8FB5-EC058B637D16}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H14" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.88671875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.5546875"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="10.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>45160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>45527</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -502,8 +548,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -577,48 +623,48 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="5" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="17.44140625"/>
+    <col min="3" max="3" customWidth="true" width="19.21875"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="17.21875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
+      <c r="A1" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1234567891234560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1234567891234560</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>2025</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>234</v>
       </c>
     </row>

--- a/data/Adactin2.xlsx
+++ b/data/Adactin2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhara\eclipse-workspace\Adactinmvn\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A406FC2-F745-4BA6-B30F-7E1032403979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571D9114-3E2F-4AF6-9A99-01B8E0FCDD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6756" yWindow="3360" windowWidth="15348" windowHeight="8880" xr2:uid="{99B51F15-D3B7-4A2D-B71C-4FF838F65068}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{99B51F15-D3B7-4A2D-B71C-4FF838F65068}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,7 +478,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="A1:XFD1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
